--- a/testReport/test_UnitTest.xlsx
+++ b/testReport/test_UnitTest.xlsx
@@ -26,7 +26,7 @@
     <t>프로젝트: UnitTest (C/C++)</t>
   </si>
   <si>
-    <t>2021-09-16 22:18:28.756</t>
+    <t>2021-09-24 22:58:28.42</t>
   </si>
   <si>
     <t>전체 커버리지</t>
@@ -7247,7 +7247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -64877,10 +64877,1610 @@
     <mergeCell ref="A1611:I1611"/>
     <mergeCell ref="A1612:I1612"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A14" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="A16" r:id="rId5"/>
+    <hyperlink ref="A17" r:id="rId6"/>
+    <hyperlink ref="A18" r:id="rId7"/>
+    <hyperlink ref="A19" r:id="rId8"/>
+    <hyperlink ref="A20" r:id="rId9"/>
+    <hyperlink ref="A21" r:id="rId10"/>
+    <hyperlink ref="A22" r:id="rId11"/>
+    <hyperlink ref="A23" r:id="rId12"/>
+    <hyperlink ref="A24" r:id="rId13"/>
+    <hyperlink ref="A25" r:id="rId14"/>
+    <hyperlink ref="A26" r:id="rId15"/>
+    <hyperlink ref="A27" r:id="rId16"/>
+    <hyperlink ref="A28" r:id="rId17"/>
+    <hyperlink ref="A29" r:id="rId18"/>
+    <hyperlink ref="A30" r:id="rId19"/>
+    <hyperlink ref="A31" r:id="rId20"/>
+    <hyperlink ref="A32" r:id="rId21"/>
+    <hyperlink ref="A33" r:id="rId22"/>
+    <hyperlink ref="A34" r:id="rId23"/>
+    <hyperlink ref="A35" r:id="rId24"/>
+    <hyperlink ref="A36" r:id="rId25"/>
+    <hyperlink ref="A37" r:id="rId26"/>
+    <hyperlink ref="A38" r:id="rId27"/>
+    <hyperlink ref="A39" r:id="rId28"/>
+    <hyperlink ref="A40" r:id="rId29"/>
+    <hyperlink ref="A41" r:id="rId30"/>
+    <hyperlink ref="A42" r:id="rId31"/>
+    <hyperlink ref="A43" r:id="rId32"/>
+    <hyperlink ref="A44" r:id="rId33"/>
+    <hyperlink ref="A45" r:id="rId34"/>
+    <hyperlink ref="A46" r:id="rId35"/>
+    <hyperlink ref="A47" r:id="rId36"/>
+    <hyperlink ref="A48" r:id="rId37"/>
+    <hyperlink ref="A49" r:id="rId38"/>
+    <hyperlink ref="A50" r:id="rId39"/>
+    <hyperlink ref="A51" r:id="rId40"/>
+    <hyperlink ref="A52" r:id="rId41"/>
+    <hyperlink ref="A53" r:id="rId42"/>
+    <hyperlink ref="A54" r:id="rId43"/>
+    <hyperlink ref="A55" r:id="rId44"/>
+    <hyperlink ref="A56" r:id="rId45"/>
+    <hyperlink ref="A57" r:id="rId46"/>
+    <hyperlink ref="A58" r:id="rId47"/>
+    <hyperlink ref="A59" r:id="rId48"/>
+    <hyperlink ref="A60" r:id="rId49"/>
+    <hyperlink ref="A61" r:id="rId50"/>
+    <hyperlink ref="A62" r:id="rId51"/>
+    <hyperlink ref="A63" r:id="rId52"/>
+    <hyperlink ref="A64" r:id="rId53"/>
+    <hyperlink ref="A65" r:id="rId54"/>
+    <hyperlink ref="A66" r:id="rId55"/>
+    <hyperlink ref="A67" r:id="rId56"/>
+    <hyperlink ref="A68" r:id="rId57"/>
+    <hyperlink ref="A69" r:id="rId58"/>
+    <hyperlink ref="A70" r:id="rId59"/>
+    <hyperlink ref="A71" r:id="rId60"/>
+    <hyperlink ref="A72" r:id="rId61"/>
+    <hyperlink ref="A73" r:id="rId62"/>
+    <hyperlink ref="A74" r:id="rId63"/>
+    <hyperlink ref="A75" r:id="rId64"/>
+    <hyperlink ref="A76" r:id="rId65"/>
+    <hyperlink ref="A77" r:id="rId66"/>
+    <hyperlink ref="A78" r:id="rId67"/>
+    <hyperlink ref="A79" r:id="rId68"/>
+    <hyperlink ref="A80" r:id="rId69"/>
+    <hyperlink ref="A81" r:id="rId70"/>
+    <hyperlink ref="A82" r:id="rId71"/>
+    <hyperlink ref="A83" r:id="rId72"/>
+    <hyperlink ref="A84" r:id="rId73"/>
+    <hyperlink ref="A85" r:id="rId74"/>
+    <hyperlink ref="A86" r:id="rId75"/>
+    <hyperlink ref="A87" r:id="rId76"/>
+    <hyperlink ref="A88" r:id="rId77"/>
+    <hyperlink ref="A89" r:id="rId78"/>
+    <hyperlink ref="A90" r:id="rId79"/>
+    <hyperlink ref="A91" r:id="rId80"/>
+    <hyperlink ref="A92" r:id="rId81"/>
+    <hyperlink ref="A93" r:id="rId82"/>
+    <hyperlink ref="A94" r:id="rId83"/>
+    <hyperlink ref="A95" r:id="rId84"/>
+    <hyperlink ref="A96" r:id="rId85"/>
+    <hyperlink ref="A97" r:id="rId86"/>
+    <hyperlink ref="A98" r:id="rId87"/>
+    <hyperlink ref="A99" r:id="rId88"/>
+    <hyperlink ref="A100" r:id="rId89"/>
+    <hyperlink ref="A101" r:id="rId90"/>
+    <hyperlink ref="A102" r:id="rId91"/>
+    <hyperlink ref="A103" r:id="rId92"/>
+    <hyperlink ref="A104" r:id="rId93"/>
+    <hyperlink ref="A105" r:id="rId94"/>
+    <hyperlink ref="A106" r:id="rId95"/>
+    <hyperlink ref="A107" r:id="rId96"/>
+    <hyperlink ref="A108" r:id="rId97"/>
+    <hyperlink ref="A109" r:id="rId98"/>
+    <hyperlink ref="A110" r:id="rId99"/>
+    <hyperlink ref="A111" r:id="rId100"/>
+    <hyperlink ref="A112" r:id="rId101"/>
+    <hyperlink ref="A113" r:id="rId102"/>
+    <hyperlink ref="A114" r:id="rId103"/>
+    <hyperlink ref="A115" r:id="rId104"/>
+    <hyperlink ref="A116" r:id="rId105"/>
+    <hyperlink ref="A117" r:id="rId106"/>
+    <hyperlink ref="A118" r:id="rId107"/>
+    <hyperlink ref="A119" r:id="rId108"/>
+    <hyperlink ref="A120" r:id="rId109"/>
+    <hyperlink ref="A121" r:id="rId110"/>
+    <hyperlink ref="A122" r:id="rId111"/>
+    <hyperlink ref="A123" r:id="rId112"/>
+    <hyperlink ref="A124" r:id="rId113"/>
+    <hyperlink ref="A125" r:id="rId114"/>
+    <hyperlink ref="A126" r:id="rId115"/>
+    <hyperlink ref="A127" r:id="rId116"/>
+    <hyperlink ref="A128" r:id="rId117"/>
+    <hyperlink ref="A129" r:id="rId118"/>
+    <hyperlink ref="A130" r:id="rId119"/>
+    <hyperlink ref="A131" r:id="rId120"/>
+    <hyperlink ref="A132" r:id="rId121"/>
+    <hyperlink ref="A133" r:id="rId122"/>
+    <hyperlink ref="A134" r:id="rId123"/>
+    <hyperlink ref="A135" r:id="rId124"/>
+    <hyperlink ref="A136" r:id="rId125"/>
+    <hyperlink ref="A137" r:id="rId126"/>
+    <hyperlink ref="A138" r:id="rId127"/>
+    <hyperlink ref="A139" r:id="rId128"/>
+    <hyperlink ref="A140" r:id="rId129"/>
+    <hyperlink ref="A141" r:id="rId130"/>
+    <hyperlink ref="A142" r:id="rId131"/>
+    <hyperlink ref="A143" r:id="rId132"/>
+    <hyperlink ref="A144" r:id="rId133"/>
+    <hyperlink ref="A145" r:id="rId134"/>
+    <hyperlink ref="A146" r:id="rId135"/>
+    <hyperlink ref="A147" r:id="rId136"/>
+    <hyperlink ref="A148" r:id="rId137"/>
+    <hyperlink ref="A149" r:id="rId138"/>
+    <hyperlink ref="A150" r:id="rId139"/>
+    <hyperlink ref="A151" r:id="rId140"/>
+    <hyperlink ref="A152" r:id="rId141"/>
+    <hyperlink ref="A153" r:id="rId142"/>
+    <hyperlink ref="A154" r:id="rId143"/>
+    <hyperlink ref="A155" r:id="rId144"/>
+    <hyperlink ref="A156" r:id="rId145"/>
+    <hyperlink ref="A157" r:id="rId146"/>
+    <hyperlink ref="A158" r:id="rId147"/>
+    <hyperlink ref="A159" r:id="rId148"/>
+    <hyperlink ref="A160" r:id="rId149"/>
+    <hyperlink ref="A161" r:id="rId150"/>
+    <hyperlink ref="A162" r:id="rId151"/>
+    <hyperlink ref="A163" r:id="rId152"/>
+    <hyperlink ref="A164" r:id="rId153"/>
+    <hyperlink ref="A165" r:id="rId154"/>
+    <hyperlink ref="A166" r:id="rId155"/>
+    <hyperlink ref="A167" r:id="rId156"/>
+    <hyperlink ref="A168" r:id="rId157"/>
+    <hyperlink ref="A169" r:id="rId158"/>
+    <hyperlink ref="A170" r:id="rId159"/>
+    <hyperlink ref="A171" r:id="rId160"/>
+    <hyperlink ref="A172" r:id="rId161"/>
+    <hyperlink ref="A173" r:id="rId162"/>
+    <hyperlink ref="A174" r:id="rId163"/>
+    <hyperlink ref="A175" r:id="rId164"/>
+    <hyperlink ref="A176" r:id="rId165"/>
+    <hyperlink ref="A177" r:id="rId166"/>
+    <hyperlink ref="A178" r:id="rId167"/>
+    <hyperlink ref="A179" r:id="rId168"/>
+    <hyperlink ref="A180" r:id="rId169"/>
+    <hyperlink ref="A181" r:id="rId170"/>
+    <hyperlink ref="A182" r:id="rId171"/>
+    <hyperlink ref="A183" r:id="rId172"/>
+    <hyperlink ref="A184" r:id="rId173"/>
+    <hyperlink ref="A185" r:id="rId174"/>
+    <hyperlink ref="A186" r:id="rId175"/>
+    <hyperlink ref="A187" r:id="rId176"/>
+    <hyperlink ref="A188" r:id="rId177"/>
+    <hyperlink ref="A189" r:id="rId178"/>
+    <hyperlink ref="A190" r:id="rId179"/>
+    <hyperlink ref="A191" r:id="rId180"/>
+    <hyperlink ref="A192" r:id="rId181"/>
+    <hyperlink ref="A193" r:id="rId182"/>
+    <hyperlink ref="A194" r:id="rId183"/>
+    <hyperlink ref="A195" r:id="rId184"/>
+    <hyperlink ref="A196" r:id="rId185"/>
+    <hyperlink ref="A197" r:id="rId186"/>
+    <hyperlink ref="A198" r:id="rId187"/>
+    <hyperlink ref="A199" r:id="rId188"/>
+    <hyperlink ref="A200" r:id="rId189"/>
+    <hyperlink ref="A201" r:id="rId190"/>
+    <hyperlink ref="A202" r:id="rId191"/>
+    <hyperlink ref="A203" r:id="rId192"/>
+    <hyperlink ref="A204" r:id="rId193"/>
+    <hyperlink ref="A205" r:id="rId194"/>
+    <hyperlink ref="A206" r:id="rId195"/>
+    <hyperlink ref="A207" r:id="rId196"/>
+    <hyperlink ref="A208" r:id="rId197"/>
+    <hyperlink ref="A209" r:id="rId198"/>
+    <hyperlink ref="A210" r:id="rId199"/>
+    <hyperlink ref="A211" r:id="rId200"/>
+    <hyperlink ref="A212" r:id="rId201"/>
+    <hyperlink ref="A213" r:id="rId202"/>
+    <hyperlink ref="A214" r:id="rId203"/>
+    <hyperlink ref="A215" r:id="rId204"/>
+    <hyperlink ref="A216" r:id="rId205"/>
+    <hyperlink ref="A217" r:id="rId206"/>
+    <hyperlink ref="A218" r:id="rId207"/>
+    <hyperlink ref="A219" r:id="rId208"/>
+    <hyperlink ref="A220" r:id="rId209"/>
+    <hyperlink ref="A221" r:id="rId210"/>
+    <hyperlink ref="A222" r:id="rId211"/>
+    <hyperlink ref="A223" r:id="rId212"/>
+    <hyperlink ref="A224" r:id="rId213"/>
+    <hyperlink ref="A225" r:id="rId214"/>
+    <hyperlink ref="A226" r:id="rId215"/>
+    <hyperlink ref="A227" r:id="rId216"/>
+    <hyperlink ref="A228" r:id="rId217"/>
+    <hyperlink ref="A229" r:id="rId218"/>
+    <hyperlink ref="A230" r:id="rId219"/>
+    <hyperlink ref="A231" r:id="rId220"/>
+    <hyperlink ref="A232" r:id="rId221"/>
+    <hyperlink ref="A233" r:id="rId222"/>
+    <hyperlink ref="A234" r:id="rId223"/>
+    <hyperlink ref="A235" r:id="rId224"/>
+    <hyperlink ref="A236" r:id="rId225"/>
+    <hyperlink ref="A237" r:id="rId226"/>
+    <hyperlink ref="A238" r:id="rId227"/>
+    <hyperlink ref="A239" r:id="rId228"/>
+    <hyperlink ref="A240" r:id="rId229"/>
+    <hyperlink ref="A241" r:id="rId230"/>
+    <hyperlink ref="A242" r:id="rId231"/>
+    <hyperlink ref="A243" r:id="rId232"/>
+    <hyperlink ref="A244" r:id="rId233"/>
+    <hyperlink ref="A245" r:id="rId234"/>
+    <hyperlink ref="A246" r:id="rId235"/>
+    <hyperlink ref="A247" r:id="rId236"/>
+    <hyperlink ref="A248" r:id="rId237"/>
+    <hyperlink ref="A249" r:id="rId238"/>
+    <hyperlink ref="A250" r:id="rId239"/>
+    <hyperlink ref="A251" r:id="rId240"/>
+    <hyperlink ref="A252" r:id="rId241"/>
+    <hyperlink ref="A253" r:id="rId242"/>
+    <hyperlink ref="A254" r:id="rId243"/>
+    <hyperlink ref="A255" r:id="rId244"/>
+    <hyperlink ref="A256" r:id="rId245"/>
+    <hyperlink ref="A257" r:id="rId246"/>
+    <hyperlink ref="A258" r:id="rId247"/>
+    <hyperlink ref="A259" r:id="rId248"/>
+    <hyperlink ref="A260" r:id="rId249"/>
+    <hyperlink ref="A261" r:id="rId250"/>
+    <hyperlink ref="A262" r:id="rId251"/>
+    <hyperlink ref="A263" r:id="rId252"/>
+    <hyperlink ref="A264" r:id="rId253"/>
+    <hyperlink ref="A265" r:id="rId254"/>
+    <hyperlink ref="A266" r:id="rId255"/>
+    <hyperlink ref="A267" r:id="rId256"/>
+    <hyperlink ref="A268" r:id="rId257"/>
+    <hyperlink ref="A269" r:id="rId258"/>
+    <hyperlink ref="A270" r:id="rId259"/>
+    <hyperlink ref="A271" r:id="rId260"/>
+    <hyperlink ref="A272" r:id="rId261"/>
+    <hyperlink ref="A273" r:id="rId262"/>
+    <hyperlink ref="A274" r:id="rId263"/>
+    <hyperlink ref="A275" r:id="rId264"/>
+    <hyperlink ref="A276" r:id="rId265"/>
+    <hyperlink ref="A277" r:id="rId266"/>
+    <hyperlink ref="A278" r:id="rId267"/>
+    <hyperlink ref="A279" r:id="rId268"/>
+    <hyperlink ref="A280" r:id="rId269"/>
+    <hyperlink ref="A281" r:id="rId270"/>
+    <hyperlink ref="A282" r:id="rId271"/>
+    <hyperlink ref="A283" r:id="rId272"/>
+    <hyperlink ref="A284" r:id="rId273"/>
+    <hyperlink ref="A285" r:id="rId274"/>
+    <hyperlink ref="A286" r:id="rId275"/>
+    <hyperlink ref="A287" r:id="rId276"/>
+    <hyperlink ref="A288" r:id="rId277"/>
+    <hyperlink ref="A289" r:id="rId278"/>
+    <hyperlink ref="A290" r:id="rId279"/>
+    <hyperlink ref="A291" r:id="rId280"/>
+    <hyperlink ref="A292" r:id="rId281"/>
+    <hyperlink ref="A293" r:id="rId282"/>
+    <hyperlink ref="A294" r:id="rId283"/>
+    <hyperlink ref="A295" r:id="rId284"/>
+    <hyperlink ref="A296" r:id="rId285"/>
+    <hyperlink ref="A297" r:id="rId286"/>
+    <hyperlink ref="A298" r:id="rId287"/>
+    <hyperlink ref="A299" r:id="rId288"/>
+    <hyperlink ref="A300" r:id="rId289"/>
+    <hyperlink ref="A301" r:id="rId290"/>
+    <hyperlink ref="A302" r:id="rId291"/>
+    <hyperlink ref="A303" r:id="rId292"/>
+    <hyperlink ref="A304" r:id="rId293"/>
+    <hyperlink ref="A305" r:id="rId294"/>
+    <hyperlink ref="A306" r:id="rId295"/>
+    <hyperlink ref="A307" r:id="rId296"/>
+    <hyperlink ref="A308" r:id="rId297"/>
+    <hyperlink ref="A309" r:id="rId298"/>
+    <hyperlink ref="A310" r:id="rId299"/>
+    <hyperlink ref="A311" r:id="rId300"/>
+    <hyperlink ref="A312" r:id="rId301"/>
+    <hyperlink ref="A313" r:id="rId302"/>
+    <hyperlink ref="A314" r:id="rId303"/>
+    <hyperlink ref="A315" r:id="rId304"/>
+    <hyperlink ref="A316" r:id="rId305"/>
+    <hyperlink ref="A317" r:id="rId306"/>
+    <hyperlink ref="A318" r:id="rId307"/>
+    <hyperlink ref="A319" r:id="rId308"/>
+    <hyperlink ref="A320" r:id="rId309"/>
+    <hyperlink ref="A321" r:id="rId310"/>
+    <hyperlink ref="A322" r:id="rId311"/>
+    <hyperlink ref="A323" r:id="rId312"/>
+    <hyperlink ref="A324" r:id="rId313"/>
+    <hyperlink ref="A325" r:id="rId314"/>
+    <hyperlink ref="A326" r:id="rId315"/>
+    <hyperlink ref="A327" r:id="rId316"/>
+    <hyperlink ref="A328" r:id="rId317"/>
+    <hyperlink ref="A329" r:id="rId318"/>
+    <hyperlink ref="A330" r:id="rId319"/>
+    <hyperlink ref="A331" r:id="rId320"/>
+    <hyperlink ref="A332" r:id="rId321"/>
+    <hyperlink ref="A333" r:id="rId322"/>
+    <hyperlink ref="A334" r:id="rId323"/>
+    <hyperlink ref="A335" r:id="rId324"/>
+    <hyperlink ref="A336" r:id="rId325"/>
+    <hyperlink ref="A337" r:id="rId326"/>
+    <hyperlink ref="A338" r:id="rId327"/>
+    <hyperlink ref="A339" r:id="rId328"/>
+    <hyperlink ref="A340" r:id="rId329"/>
+    <hyperlink ref="A341" r:id="rId330"/>
+    <hyperlink ref="A342" r:id="rId331"/>
+    <hyperlink ref="A343" r:id="rId332"/>
+    <hyperlink ref="A344" r:id="rId333"/>
+    <hyperlink ref="A345" r:id="rId334"/>
+    <hyperlink ref="A346" r:id="rId335"/>
+    <hyperlink ref="A347" r:id="rId336"/>
+    <hyperlink ref="A348" r:id="rId337"/>
+    <hyperlink ref="A349" r:id="rId338"/>
+    <hyperlink ref="A350" r:id="rId339"/>
+    <hyperlink ref="A351" r:id="rId340"/>
+    <hyperlink ref="A352" r:id="rId341"/>
+    <hyperlink ref="A353" r:id="rId342"/>
+    <hyperlink ref="A354" r:id="rId343"/>
+    <hyperlink ref="A355" r:id="rId344"/>
+    <hyperlink ref="A356" r:id="rId345"/>
+    <hyperlink ref="A357" r:id="rId346"/>
+    <hyperlink ref="A358" r:id="rId347"/>
+    <hyperlink ref="A359" r:id="rId348"/>
+    <hyperlink ref="A360" r:id="rId349"/>
+    <hyperlink ref="A361" r:id="rId350"/>
+    <hyperlink ref="A362" r:id="rId351"/>
+    <hyperlink ref="A363" r:id="rId352"/>
+    <hyperlink ref="A364" r:id="rId353"/>
+    <hyperlink ref="A365" r:id="rId354"/>
+    <hyperlink ref="A366" r:id="rId355"/>
+    <hyperlink ref="A367" r:id="rId356"/>
+    <hyperlink ref="A368" r:id="rId357"/>
+    <hyperlink ref="A369" r:id="rId358"/>
+    <hyperlink ref="A370" r:id="rId359"/>
+    <hyperlink ref="A371" r:id="rId360"/>
+    <hyperlink ref="A372" r:id="rId361"/>
+    <hyperlink ref="A373" r:id="rId362"/>
+    <hyperlink ref="A374" r:id="rId363"/>
+    <hyperlink ref="A375" r:id="rId364"/>
+    <hyperlink ref="A376" r:id="rId365"/>
+    <hyperlink ref="A377" r:id="rId366"/>
+    <hyperlink ref="A378" r:id="rId367"/>
+    <hyperlink ref="A379" r:id="rId368"/>
+    <hyperlink ref="A380" r:id="rId369"/>
+    <hyperlink ref="A381" r:id="rId370"/>
+    <hyperlink ref="A382" r:id="rId371"/>
+    <hyperlink ref="A383" r:id="rId372"/>
+    <hyperlink ref="A384" r:id="rId373"/>
+    <hyperlink ref="A385" r:id="rId374"/>
+    <hyperlink ref="A386" r:id="rId375"/>
+    <hyperlink ref="A387" r:id="rId376"/>
+    <hyperlink ref="A388" r:id="rId377"/>
+    <hyperlink ref="A389" r:id="rId378"/>
+    <hyperlink ref="A390" r:id="rId379"/>
+    <hyperlink ref="A391" r:id="rId380"/>
+    <hyperlink ref="A392" r:id="rId381"/>
+    <hyperlink ref="A393" r:id="rId382"/>
+    <hyperlink ref="A394" r:id="rId383"/>
+    <hyperlink ref="A395" r:id="rId384"/>
+    <hyperlink ref="A396" r:id="rId385"/>
+    <hyperlink ref="A397" r:id="rId386"/>
+    <hyperlink ref="A398" r:id="rId387"/>
+    <hyperlink ref="A399" r:id="rId388"/>
+    <hyperlink ref="A400" r:id="rId389"/>
+    <hyperlink ref="A401" r:id="rId390"/>
+    <hyperlink ref="A402" r:id="rId391"/>
+    <hyperlink ref="A403" r:id="rId392"/>
+    <hyperlink ref="A404" r:id="rId393"/>
+    <hyperlink ref="A405" r:id="rId394"/>
+    <hyperlink ref="A406" r:id="rId395"/>
+    <hyperlink ref="A407" r:id="rId396"/>
+    <hyperlink ref="A408" r:id="rId397"/>
+    <hyperlink ref="A409" r:id="rId398"/>
+    <hyperlink ref="A410" r:id="rId399"/>
+    <hyperlink ref="A411" r:id="rId400"/>
+    <hyperlink ref="A412" r:id="rId401"/>
+    <hyperlink ref="A413" r:id="rId402"/>
+    <hyperlink ref="A414" r:id="rId403"/>
+    <hyperlink ref="A415" r:id="rId404"/>
+    <hyperlink ref="A416" r:id="rId405"/>
+    <hyperlink ref="A417" r:id="rId406"/>
+    <hyperlink ref="A418" r:id="rId407"/>
+    <hyperlink ref="A419" r:id="rId408"/>
+    <hyperlink ref="A420" r:id="rId409"/>
+    <hyperlink ref="A421" r:id="rId410"/>
+    <hyperlink ref="A422" r:id="rId411"/>
+    <hyperlink ref="A423" r:id="rId412"/>
+    <hyperlink ref="A424" r:id="rId413"/>
+    <hyperlink ref="A425" r:id="rId414"/>
+    <hyperlink ref="A426" r:id="rId415"/>
+    <hyperlink ref="A427" r:id="rId416"/>
+    <hyperlink ref="A428" r:id="rId417"/>
+    <hyperlink ref="A429" r:id="rId418"/>
+    <hyperlink ref="A430" r:id="rId419"/>
+    <hyperlink ref="A431" r:id="rId420"/>
+    <hyperlink ref="A432" r:id="rId421"/>
+    <hyperlink ref="A433" r:id="rId422"/>
+    <hyperlink ref="A434" r:id="rId423"/>
+    <hyperlink ref="A435" r:id="rId424"/>
+    <hyperlink ref="A436" r:id="rId425"/>
+    <hyperlink ref="A437" r:id="rId426"/>
+    <hyperlink ref="A438" r:id="rId427"/>
+    <hyperlink ref="A439" r:id="rId428"/>
+    <hyperlink ref="A440" r:id="rId429"/>
+    <hyperlink ref="A441" r:id="rId430"/>
+    <hyperlink ref="A442" r:id="rId431"/>
+    <hyperlink ref="A443" r:id="rId432"/>
+    <hyperlink ref="A444" r:id="rId433"/>
+    <hyperlink ref="A445" r:id="rId434"/>
+    <hyperlink ref="A446" r:id="rId435"/>
+    <hyperlink ref="A447" r:id="rId436"/>
+    <hyperlink ref="A448" r:id="rId437"/>
+    <hyperlink ref="A449" r:id="rId438"/>
+    <hyperlink ref="A450" r:id="rId439"/>
+    <hyperlink ref="A451" r:id="rId440"/>
+    <hyperlink ref="A452" r:id="rId441"/>
+    <hyperlink ref="A453" r:id="rId442"/>
+    <hyperlink ref="A454" r:id="rId443"/>
+    <hyperlink ref="A455" r:id="rId444"/>
+    <hyperlink ref="A456" r:id="rId445"/>
+    <hyperlink ref="A457" r:id="rId446"/>
+    <hyperlink ref="A458" r:id="rId447"/>
+    <hyperlink ref="A459" r:id="rId448"/>
+    <hyperlink ref="A460" r:id="rId449"/>
+    <hyperlink ref="A461" r:id="rId450"/>
+    <hyperlink ref="A462" r:id="rId451"/>
+    <hyperlink ref="A463" r:id="rId452"/>
+    <hyperlink ref="A464" r:id="rId453"/>
+    <hyperlink ref="A465" r:id="rId454"/>
+    <hyperlink ref="A466" r:id="rId455"/>
+    <hyperlink ref="A467" r:id="rId456"/>
+    <hyperlink ref="A468" r:id="rId457"/>
+    <hyperlink ref="A469" r:id="rId458"/>
+    <hyperlink ref="A470" r:id="rId459"/>
+    <hyperlink ref="A471" r:id="rId460"/>
+    <hyperlink ref="A472" r:id="rId461"/>
+    <hyperlink ref="A473" r:id="rId462"/>
+    <hyperlink ref="A474" r:id="rId463"/>
+    <hyperlink ref="A475" r:id="rId464"/>
+    <hyperlink ref="A476" r:id="rId465"/>
+    <hyperlink ref="A477" r:id="rId466"/>
+    <hyperlink ref="A478" r:id="rId467"/>
+    <hyperlink ref="A479" r:id="rId468"/>
+    <hyperlink ref="A480" r:id="rId469"/>
+    <hyperlink ref="A481" r:id="rId470"/>
+    <hyperlink ref="A482" r:id="rId471"/>
+    <hyperlink ref="A483" r:id="rId472"/>
+    <hyperlink ref="A484" r:id="rId473"/>
+    <hyperlink ref="A485" r:id="rId474"/>
+    <hyperlink ref="A486" r:id="rId475"/>
+    <hyperlink ref="A487" r:id="rId476"/>
+    <hyperlink ref="A488" r:id="rId477"/>
+    <hyperlink ref="A489" r:id="rId478"/>
+    <hyperlink ref="A490" r:id="rId479"/>
+    <hyperlink ref="A491" r:id="rId480"/>
+    <hyperlink ref="A492" r:id="rId481"/>
+    <hyperlink ref="A493" r:id="rId482"/>
+    <hyperlink ref="A494" r:id="rId483"/>
+    <hyperlink ref="A495" r:id="rId484"/>
+    <hyperlink ref="A496" r:id="rId485"/>
+    <hyperlink ref="A497" r:id="rId486"/>
+    <hyperlink ref="A498" r:id="rId487"/>
+    <hyperlink ref="A499" r:id="rId488"/>
+    <hyperlink ref="A500" r:id="rId489"/>
+    <hyperlink ref="A501" r:id="rId490"/>
+    <hyperlink ref="A502" r:id="rId491"/>
+    <hyperlink ref="A503" r:id="rId492"/>
+    <hyperlink ref="A504" r:id="rId493"/>
+    <hyperlink ref="A505" r:id="rId494"/>
+    <hyperlink ref="A506" r:id="rId495"/>
+    <hyperlink ref="A507" r:id="rId496"/>
+    <hyperlink ref="A508" r:id="rId497"/>
+    <hyperlink ref="A509" r:id="rId498"/>
+    <hyperlink ref="A510" r:id="rId499"/>
+    <hyperlink ref="A511" r:id="rId500"/>
+    <hyperlink ref="A512" r:id="rId501"/>
+    <hyperlink ref="A513" r:id="rId502"/>
+    <hyperlink ref="A514" r:id="rId503"/>
+    <hyperlink ref="A515" r:id="rId504"/>
+    <hyperlink ref="A516" r:id="rId505"/>
+    <hyperlink ref="A517" r:id="rId506"/>
+    <hyperlink ref="A518" r:id="rId507"/>
+    <hyperlink ref="A519" r:id="rId508"/>
+    <hyperlink ref="A520" r:id="rId509"/>
+    <hyperlink ref="A521" r:id="rId510"/>
+    <hyperlink ref="A522" r:id="rId511"/>
+    <hyperlink ref="A523" r:id="rId512"/>
+    <hyperlink ref="A524" r:id="rId513"/>
+    <hyperlink ref="A525" r:id="rId514"/>
+    <hyperlink ref="A526" r:id="rId515"/>
+    <hyperlink ref="A527" r:id="rId516"/>
+    <hyperlink ref="A528" r:id="rId517"/>
+    <hyperlink ref="A529" r:id="rId518"/>
+    <hyperlink ref="A530" r:id="rId519"/>
+    <hyperlink ref="A531" r:id="rId520"/>
+    <hyperlink ref="A532" r:id="rId521"/>
+    <hyperlink ref="A533" r:id="rId522"/>
+    <hyperlink ref="A534" r:id="rId523"/>
+    <hyperlink ref="A535" r:id="rId524"/>
+    <hyperlink ref="A536" r:id="rId525"/>
+    <hyperlink ref="A537" r:id="rId526"/>
+    <hyperlink ref="A538" r:id="rId527"/>
+    <hyperlink ref="A539" r:id="rId528"/>
+    <hyperlink ref="A540" r:id="rId529"/>
+    <hyperlink ref="A541" r:id="rId530"/>
+    <hyperlink ref="A542" r:id="rId531"/>
+    <hyperlink ref="A543" r:id="rId532"/>
+    <hyperlink ref="A544" r:id="rId533"/>
+    <hyperlink ref="A545" r:id="rId534"/>
+    <hyperlink ref="A546" r:id="rId535"/>
+    <hyperlink ref="A547" r:id="rId536"/>
+    <hyperlink ref="A548" r:id="rId537"/>
+    <hyperlink ref="A549" r:id="rId538"/>
+    <hyperlink ref="A550" r:id="rId539"/>
+    <hyperlink ref="A551" r:id="rId540"/>
+    <hyperlink ref="A552" r:id="rId541"/>
+    <hyperlink ref="A553" r:id="rId542"/>
+    <hyperlink ref="A554" r:id="rId543"/>
+    <hyperlink ref="A555" r:id="rId544"/>
+    <hyperlink ref="A556" r:id="rId545"/>
+    <hyperlink ref="A557" r:id="rId546"/>
+    <hyperlink ref="A558" r:id="rId547"/>
+    <hyperlink ref="A559" r:id="rId548"/>
+    <hyperlink ref="A560" r:id="rId549"/>
+    <hyperlink ref="A561" r:id="rId550"/>
+    <hyperlink ref="A562" r:id="rId551"/>
+    <hyperlink ref="A563" r:id="rId552"/>
+    <hyperlink ref="A564" r:id="rId553"/>
+    <hyperlink ref="A565" r:id="rId554"/>
+    <hyperlink ref="A566" r:id="rId555"/>
+    <hyperlink ref="A567" r:id="rId556"/>
+    <hyperlink ref="A568" r:id="rId557"/>
+    <hyperlink ref="A569" r:id="rId558"/>
+    <hyperlink ref="A570" r:id="rId559"/>
+    <hyperlink ref="A571" r:id="rId560"/>
+    <hyperlink ref="A572" r:id="rId561"/>
+    <hyperlink ref="A573" r:id="rId562"/>
+    <hyperlink ref="A574" r:id="rId563"/>
+    <hyperlink ref="A575" r:id="rId564"/>
+    <hyperlink ref="A576" r:id="rId565"/>
+    <hyperlink ref="A577" r:id="rId566"/>
+    <hyperlink ref="A578" r:id="rId567"/>
+    <hyperlink ref="A579" r:id="rId568"/>
+    <hyperlink ref="A580" r:id="rId569"/>
+    <hyperlink ref="A581" r:id="rId570"/>
+    <hyperlink ref="A582" r:id="rId571"/>
+    <hyperlink ref="A583" r:id="rId572"/>
+    <hyperlink ref="A584" r:id="rId573"/>
+    <hyperlink ref="A585" r:id="rId574"/>
+    <hyperlink ref="A586" r:id="rId575"/>
+    <hyperlink ref="A587" r:id="rId576"/>
+    <hyperlink ref="A588" r:id="rId577"/>
+    <hyperlink ref="A589" r:id="rId578"/>
+    <hyperlink ref="A590" r:id="rId579"/>
+    <hyperlink ref="A591" r:id="rId580"/>
+    <hyperlink ref="A592" r:id="rId581"/>
+    <hyperlink ref="A593" r:id="rId582"/>
+    <hyperlink ref="A594" r:id="rId583"/>
+    <hyperlink ref="A595" r:id="rId584"/>
+    <hyperlink ref="A596" r:id="rId585"/>
+    <hyperlink ref="A597" r:id="rId586"/>
+    <hyperlink ref="A598" r:id="rId587"/>
+    <hyperlink ref="A599" r:id="rId588"/>
+    <hyperlink ref="A600" r:id="rId589"/>
+    <hyperlink ref="A601" r:id="rId590"/>
+    <hyperlink ref="A602" r:id="rId591"/>
+    <hyperlink ref="A603" r:id="rId592"/>
+    <hyperlink ref="A604" r:id="rId593"/>
+    <hyperlink ref="A605" r:id="rId594"/>
+    <hyperlink ref="A606" r:id="rId595"/>
+    <hyperlink ref="A607" r:id="rId596"/>
+    <hyperlink ref="A608" r:id="rId597"/>
+    <hyperlink ref="A609" r:id="rId598"/>
+    <hyperlink ref="A610" r:id="rId599"/>
+    <hyperlink ref="A611" r:id="rId600"/>
+    <hyperlink ref="A612" r:id="rId601"/>
+    <hyperlink ref="A613" r:id="rId602"/>
+    <hyperlink ref="A614" r:id="rId603"/>
+    <hyperlink ref="A615" r:id="rId604"/>
+    <hyperlink ref="A616" r:id="rId605"/>
+    <hyperlink ref="A617" r:id="rId606"/>
+    <hyperlink ref="A618" r:id="rId607"/>
+    <hyperlink ref="A619" r:id="rId608"/>
+    <hyperlink ref="A620" r:id="rId609"/>
+    <hyperlink ref="A621" r:id="rId610"/>
+    <hyperlink ref="A622" r:id="rId611"/>
+    <hyperlink ref="A623" r:id="rId612"/>
+    <hyperlink ref="A624" r:id="rId613"/>
+    <hyperlink ref="A625" r:id="rId614"/>
+    <hyperlink ref="A626" r:id="rId615"/>
+    <hyperlink ref="A627" r:id="rId616"/>
+    <hyperlink ref="A628" r:id="rId617"/>
+    <hyperlink ref="A629" r:id="rId618"/>
+    <hyperlink ref="A630" r:id="rId619"/>
+    <hyperlink ref="A631" r:id="rId620"/>
+    <hyperlink ref="A632" r:id="rId621"/>
+    <hyperlink ref="A633" r:id="rId622"/>
+    <hyperlink ref="A634" r:id="rId623"/>
+    <hyperlink ref="A635" r:id="rId624"/>
+    <hyperlink ref="A636" r:id="rId625"/>
+    <hyperlink ref="A637" r:id="rId626"/>
+    <hyperlink ref="A638" r:id="rId627"/>
+    <hyperlink ref="A639" r:id="rId628"/>
+    <hyperlink ref="A640" r:id="rId629"/>
+    <hyperlink ref="A641" r:id="rId630"/>
+    <hyperlink ref="A642" r:id="rId631"/>
+    <hyperlink ref="A643" r:id="rId632"/>
+    <hyperlink ref="A644" r:id="rId633"/>
+    <hyperlink ref="A645" r:id="rId634"/>
+    <hyperlink ref="A646" r:id="rId635"/>
+    <hyperlink ref="A647" r:id="rId636"/>
+    <hyperlink ref="A648" r:id="rId637"/>
+    <hyperlink ref="A649" r:id="rId638"/>
+    <hyperlink ref="A650" r:id="rId639"/>
+    <hyperlink ref="A651" r:id="rId640"/>
+    <hyperlink ref="A652" r:id="rId641"/>
+    <hyperlink ref="A653" r:id="rId642"/>
+    <hyperlink ref="A654" r:id="rId643"/>
+    <hyperlink ref="A655" r:id="rId644"/>
+    <hyperlink ref="A656" r:id="rId645"/>
+    <hyperlink ref="A657" r:id="rId646"/>
+    <hyperlink ref="A658" r:id="rId647"/>
+    <hyperlink ref="A659" r:id="rId648"/>
+    <hyperlink ref="A660" r:id="rId649"/>
+    <hyperlink ref="A661" r:id="rId650"/>
+    <hyperlink ref="A662" r:id="rId651"/>
+    <hyperlink ref="A663" r:id="rId652"/>
+    <hyperlink ref="A664" r:id="rId653"/>
+    <hyperlink ref="A665" r:id="rId654"/>
+    <hyperlink ref="A666" r:id="rId655"/>
+    <hyperlink ref="A667" r:id="rId656"/>
+    <hyperlink ref="A668" r:id="rId657"/>
+    <hyperlink ref="A669" r:id="rId658"/>
+    <hyperlink ref="A670" r:id="rId659"/>
+    <hyperlink ref="A671" r:id="rId660"/>
+    <hyperlink ref="A672" r:id="rId661"/>
+    <hyperlink ref="A673" r:id="rId662"/>
+    <hyperlink ref="A674" r:id="rId663"/>
+    <hyperlink ref="A675" r:id="rId664"/>
+    <hyperlink ref="A676" r:id="rId665"/>
+    <hyperlink ref="A677" r:id="rId666"/>
+    <hyperlink ref="A678" r:id="rId667"/>
+    <hyperlink ref="A679" r:id="rId668"/>
+    <hyperlink ref="A680" r:id="rId669"/>
+    <hyperlink ref="A681" r:id="rId670"/>
+    <hyperlink ref="A682" r:id="rId671"/>
+    <hyperlink ref="A683" r:id="rId672"/>
+    <hyperlink ref="A684" r:id="rId673"/>
+    <hyperlink ref="A685" r:id="rId674"/>
+    <hyperlink ref="A686" r:id="rId675"/>
+    <hyperlink ref="A687" r:id="rId676"/>
+    <hyperlink ref="A688" r:id="rId677"/>
+    <hyperlink ref="A689" r:id="rId678"/>
+    <hyperlink ref="A690" r:id="rId679"/>
+    <hyperlink ref="A691" r:id="rId680"/>
+    <hyperlink ref="A692" r:id="rId681"/>
+    <hyperlink ref="A693" r:id="rId682"/>
+    <hyperlink ref="A694" r:id="rId683"/>
+    <hyperlink ref="A695" r:id="rId684"/>
+    <hyperlink ref="A696" r:id="rId685"/>
+    <hyperlink ref="A697" r:id="rId686"/>
+    <hyperlink ref="A698" r:id="rId687"/>
+    <hyperlink ref="A699" r:id="rId688"/>
+    <hyperlink ref="A700" r:id="rId689"/>
+    <hyperlink ref="A701" r:id="rId690"/>
+    <hyperlink ref="A702" r:id="rId691"/>
+    <hyperlink ref="A703" r:id="rId692"/>
+    <hyperlink ref="A704" r:id="rId693"/>
+    <hyperlink ref="A705" r:id="rId694"/>
+    <hyperlink ref="A706" r:id="rId695"/>
+    <hyperlink ref="A707" r:id="rId696"/>
+    <hyperlink ref="A708" r:id="rId697"/>
+    <hyperlink ref="A709" r:id="rId698"/>
+    <hyperlink ref="A710" r:id="rId699"/>
+    <hyperlink ref="A711" r:id="rId700"/>
+    <hyperlink ref="A712" r:id="rId701"/>
+    <hyperlink ref="A713" r:id="rId702"/>
+    <hyperlink ref="A714" r:id="rId703"/>
+    <hyperlink ref="A715" r:id="rId704"/>
+    <hyperlink ref="A716" r:id="rId705"/>
+    <hyperlink ref="A717" r:id="rId706"/>
+    <hyperlink ref="A718" r:id="rId707"/>
+    <hyperlink ref="A719" r:id="rId708"/>
+    <hyperlink ref="A720" r:id="rId709"/>
+    <hyperlink ref="A721" r:id="rId710"/>
+    <hyperlink ref="A722" r:id="rId711"/>
+    <hyperlink ref="A723" r:id="rId712"/>
+    <hyperlink ref="A724" r:id="rId713"/>
+    <hyperlink ref="A725" r:id="rId714"/>
+    <hyperlink ref="A726" r:id="rId715"/>
+    <hyperlink ref="A727" r:id="rId716"/>
+    <hyperlink ref="A728" r:id="rId717"/>
+    <hyperlink ref="A729" r:id="rId718"/>
+    <hyperlink ref="A730" r:id="rId719"/>
+    <hyperlink ref="A731" r:id="rId720"/>
+    <hyperlink ref="A732" r:id="rId721"/>
+    <hyperlink ref="A733" r:id="rId722"/>
+    <hyperlink ref="A734" r:id="rId723"/>
+    <hyperlink ref="A735" r:id="rId724"/>
+    <hyperlink ref="A736" r:id="rId725"/>
+    <hyperlink ref="A737" r:id="rId726"/>
+    <hyperlink ref="A738" r:id="rId727"/>
+    <hyperlink ref="A739" r:id="rId728"/>
+    <hyperlink ref="A740" r:id="rId729"/>
+    <hyperlink ref="A741" r:id="rId730"/>
+    <hyperlink ref="A742" r:id="rId731"/>
+    <hyperlink ref="A743" r:id="rId732"/>
+    <hyperlink ref="A744" r:id="rId733"/>
+    <hyperlink ref="A745" r:id="rId734"/>
+    <hyperlink ref="A746" r:id="rId735"/>
+    <hyperlink ref="A747" r:id="rId736"/>
+    <hyperlink ref="A748" r:id="rId737"/>
+    <hyperlink ref="A749" r:id="rId738"/>
+    <hyperlink ref="A750" r:id="rId739"/>
+    <hyperlink ref="A751" r:id="rId740"/>
+    <hyperlink ref="A752" r:id="rId741"/>
+    <hyperlink ref="A753" r:id="rId742"/>
+    <hyperlink ref="A754" r:id="rId743"/>
+    <hyperlink ref="A755" r:id="rId744"/>
+    <hyperlink ref="A756" r:id="rId745"/>
+    <hyperlink ref="A757" r:id="rId746"/>
+    <hyperlink ref="A758" r:id="rId747"/>
+    <hyperlink ref="A759" r:id="rId748"/>
+    <hyperlink ref="A760" r:id="rId749"/>
+    <hyperlink ref="A761" r:id="rId750"/>
+    <hyperlink ref="A762" r:id="rId751"/>
+    <hyperlink ref="A763" r:id="rId752"/>
+    <hyperlink ref="A764" r:id="rId753"/>
+    <hyperlink ref="A765" r:id="rId754"/>
+    <hyperlink ref="A766" r:id="rId755"/>
+    <hyperlink ref="A767" r:id="rId756"/>
+    <hyperlink ref="A768" r:id="rId757"/>
+    <hyperlink ref="A769" r:id="rId758"/>
+    <hyperlink ref="A770" r:id="rId759"/>
+    <hyperlink ref="A771" r:id="rId760"/>
+    <hyperlink ref="A772" r:id="rId761"/>
+    <hyperlink ref="A773" r:id="rId762"/>
+    <hyperlink ref="A774" r:id="rId763"/>
+    <hyperlink ref="A775" r:id="rId764"/>
+    <hyperlink ref="A776" r:id="rId765"/>
+    <hyperlink ref="A777" r:id="rId766"/>
+    <hyperlink ref="A778" r:id="rId767"/>
+    <hyperlink ref="A779" r:id="rId768"/>
+    <hyperlink ref="A780" r:id="rId769"/>
+    <hyperlink ref="A781" r:id="rId770"/>
+    <hyperlink ref="A782" r:id="rId771"/>
+    <hyperlink ref="A783" r:id="rId772"/>
+    <hyperlink ref="A784" r:id="rId773"/>
+    <hyperlink ref="A785" r:id="rId774"/>
+    <hyperlink ref="A786" r:id="rId775"/>
+    <hyperlink ref="A787" r:id="rId776"/>
+    <hyperlink ref="A788" r:id="rId777"/>
+    <hyperlink ref="A789" r:id="rId778"/>
+    <hyperlink ref="A790" r:id="rId779"/>
+    <hyperlink ref="A791" r:id="rId780"/>
+    <hyperlink ref="A792" r:id="rId781"/>
+    <hyperlink ref="A793" r:id="rId782"/>
+    <hyperlink ref="A794" r:id="rId783"/>
+    <hyperlink ref="A795" r:id="rId784"/>
+    <hyperlink ref="A796" r:id="rId785"/>
+    <hyperlink ref="A797" r:id="rId786"/>
+    <hyperlink ref="A798" r:id="rId787"/>
+    <hyperlink ref="A799" r:id="rId788"/>
+    <hyperlink ref="A800" r:id="rId789"/>
+    <hyperlink ref="A801" r:id="rId790"/>
+    <hyperlink ref="A802" r:id="rId791"/>
+    <hyperlink ref="A803" r:id="rId792"/>
+    <hyperlink ref="A804" r:id="rId793"/>
+    <hyperlink ref="A805" r:id="rId794"/>
+    <hyperlink ref="A806" r:id="rId795"/>
+    <hyperlink ref="A807" r:id="rId796"/>
+    <hyperlink ref="A808" r:id="rId797"/>
+    <hyperlink ref="A809" r:id="rId798"/>
+    <hyperlink ref="A810" r:id="rId799"/>
+    <hyperlink ref="A811" r:id="rId800"/>
+    <hyperlink ref="A812" r:id="rId801"/>
+    <hyperlink ref="A813" r:id="rId802"/>
+    <hyperlink ref="A814" r:id="rId803"/>
+    <hyperlink ref="A815" r:id="rId804"/>
+    <hyperlink ref="A816" r:id="rId805"/>
+    <hyperlink ref="A817" r:id="rId806"/>
+    <hyperlink ref="A818" r:id="rId807"/>
+    <hyperlink ref="A819" r:id="rId808"/>
+    <hyperlink ref="A820" r:id="rId809"/>
+    <hyperlink ref="A821" r:id="rId810"/>
+    <hyperlink ref="A822" r:id="rId811"/>
+    <hyperlink ref="A823" r:id="rId812"/>
+    <hyperlink ref="A824" r:id="rId813"/>
+    <hyperlink ref="A825" r:id="rId814"/>
+    <hyperlink ref="A826" r:id="rId815"/>
+    <hyperlink ref="A827" r:id="rId816"/>
+    <hyperlink ref="A828" r:id="rId817"/>
+    <hyperlink ref="A829" r:id="rId818"/>
+    <hyperlink ref="A830" r:id="rId819"/>
+    <hyperlink ref="A831" r:id="rId820"/>
+    <hyperlink ref="A832" r:id="rId821"/>
+    <hyperlink ref="A833" r:id="rId822"/>
+    <hyperlink ref="A834" r:id="rId823"/>
+    <hyperlink ref="A835" r:id="rId824"/>
+    <hyperlink ref="A836" r:id="rId825"/>
+    <hyperlink ref="A837" r:id="rId826"/>
+    <hyperlink ref="A838" r:id="rId827"/>
+    <hyperlink ref="A839" r:id="rId828"/>
+    <hyperlink ref="A840" r:id="rId829"/>
+    <hyperlink ref="A841" r:id="rId830"/>
+    <hyperlink ref="A842" r:id="rId831"/>
+    <hyperlink ref="A843" r:id="rId832"/>
+    <hyperlink ref="A844" r:id="rId833"/>
+    <hyperlink ref="A845" r:id="rId834"/>
+    <hyperlink ref="A846" r:id="rId835"/>
+    <hyperlink ref="A847" r:id="rId836"/>
+    <hyperlink ref="A848" r:id="rId837"/>
+    <hyperlink ref="A849" r:id="rId838"/>
+    <hyperlink ref="A850" r:id="rId839"/>
+    <hyperlink ref="A851" r:id="rId840"/>
+    <hyperlink ref="A852" r:id="rId841"/>
+    <hyperlink ref="A853" r:id="rId842"/>
+    <hyperlink ref="A854" r:id="rId843"/>
+    <hyperlink ref="A855" r:id="rId844"/>
+    <hyperlink ref="A856" r:id="rId845"/>
+    <hyperlink ref="A857" r:id="rId846"/>
+    <hyperlink ref="A858" r:id="rId847"/>
+    <hyperlink ref="A859" r:id="rId848"/>
+    <hyperlink ref="A860" r:id="rId849"/>
+    <hyperlink ref="A861" r:id="rId850"/>
+    <hyperlink ref="A862" r:id="rId851"/>
+    <hyperlink ref="A863" r:id="rId852"/>
+    <hyperlink ref="A864" r:id="rId853"/>
+    <hyperlink ref="A865" r:id="rId854"/>
+    <hyperlink ref="A866" r:id="rId855"/>
+    <hyperlink ref="A867" r:id="rId856"/>
+    <hyperlink ref="A868" r:id="rId857"/>
+    <hyperlink ref="A869" r:id="rId858"/>
+    <hyperlink ref="A870" r:id="rId859"/>
+    <hyperlink ref="A871" r:id="rId860"/>
+    <hyperlink ref="A872" r:id="rId861"/>
+    <hyperlink ref="A873" r:id="rId862"/>
+    <hyperlink ref="A874" r:id="rId863"/>
+    <hyperlink ref="A875" r:id="rId864"/>
+    <hyperlink ref="A876" r:id="rId865"/>
+    <hyperlink ref="A877" r:id="rId866"/>
+    <hyperlink ref="A878" r:id="rId867"/>
+    <hyperlink ref="A879" r:id="rId868"/>
+    <hyperlink ref="A880" r:id="rId869"/>
+    <hyperlink ref="A881" r:id="rId870"/>
+    <hyperlink ref="A882" r:id="rId871"/>
+    <hyperlink ref="A883" r:id="rId872"/>
+    <hyperlink ref="A884" r:id="rId873"/>
+    <hyperlink ref="A885" r:id="rId874"/>
+    <hyperlink ref="A886" r:id="rId875"/>
+    <hyperlink ref="A887" r:id="rId876"/>
+    <hyperlink ref="A888" r:id="rId877"/>
+    <hyperlink ref="A889" r:id="rId878"/>
+    <hyperlink ref="A890" r:id="rId879"/>
+    <hyperlink ref="A891" r:id="rId880"/>
+    <hyperlink ref="A892" r:id="rId881"/>
+    <hyperlink ref="A893" r:id="rId882"/>
+    <hyperlink ref="A894" r:id="rId883"/>
+    <hyperlink ref="A895" r:id="rId884"/>
+    <hyperlink ref="A896" r:id="rId885"/>
+    <hyperlink ref="A897" r:id="rId886"/>
+    <hyperlink ref="A898" r:id="rId887"/>
+    <hyperlink ref="A899" r:id="rId888"/>
+    <hyperlink ref="A900" r:id="rId889"/>
+    <hyperlink ref="A901" r:id="rId890"/>
+    <hyperlink ref="A902" r:id="rId891"/>
+    <hyperlink ref="A903" r:id="rId892"/>
+    <hyperlink ref="A904" r:id="rId893"/>
+    <hyperlink ref="A905" r:id="rId894"/>
+    <hyperlink ref="A906" r:id="rId895"/>
+    <hyperlink ref="A907" r:id="rId896"/>
+    <hyperlink ref="A908" r:id="rId897"/>
+    <hyperlink ref="A909" r:id="rId898"/>
+    <hyperlink ref="A910" r:id="rId899"/>
+    <hyperlink ref="A911" r:id="rId900"/>
+    <hyperlink ref="A912" r:id="rId901"/>
+    <hyperlink ref="A913" r:id="rId902"/>
+    <hyperlink ref="A914" r:id="rId903"/>
+    <hyperlink ref="A915" r:id="rId904"/>
+    <hyperlink ref="A916" r:id="rId905"/>
+    <hyperlink ref="A917" r:id="rId906"/>
+    <hyperlink ref="A918" r:id="rId907"/>
+    <hyperlink ref="A919" r:id="rId908"/>
+    <hyperlink ref="A920" r:id="rId909"/>
+    <hyperlink ref="A921" r:id="rId910"/>
+    <hyperlink ref="A922" r:id="rId911"/>
+    <hyperlink ref="A923" r:id="rId912"/>
+    <hyperlink ref="A924" r:id="rId913"/>
+    <hyperlink ref="A925" r:id="rId914"/>
+    <hyperlink ref="A926" r:id="rId915"/>
+    <hyperlink ref="A927" r:id="rId916"/>
+    <hyperlink ref="A928" r:id="rId917"/>
+    <hyperlink ref="A929" r:id="rId918"/>
+    <hyperlink ref="A930" r:id="rId919"/>
+    <hyperlink ref="A931" r:id="rId920"/>
+    <hyperlink ref="A932" r:id="rId921"/>
+    <hyperlink ref="A933" r:id="rId922"/>
+    <hyperlink ref="A934" r:id="rId923"/>
+    <hyperlink ref="A935" r:id="rId924"/>
+    <hyperlink ref="A936" r:id="rId925"/>
+    <hyperlink ref="A937" r:id="rId926"/>
+    <hyperlink ref="A938" r:id="rId927"/>
+    <hyperlink ref="A939" r:id="rId928"/>
+    <hyperlink ref="A940" r:id="rId929"/>
+    <hyperlink ref="A941" r:id="rId930"/>
+    <hyperlink ref="A942" r:id="rId931"/>
+    <hyperlink ref="A943" r:id="rId932"/>
+    <hyperlink ref="A944" r:id="rId933"/>
+    <hyperlink ref="A945" r:id="rId934"/>
+    <hyperlink ref="A946" r:id="rId935"/>
+    <hyperlink ref="A947" r:id="rId936"/>
+    <hyperlink ref="A948" r:id="rId937"/>
+    <hyperlink ref="A949" r:id="rId938"/>
+    <hyperlink ref="A950" r:id="rId939"/>
+    <hyperlink ref="A951" r:id="rId940"/>
+    <hyperlink ref="A952" r:id="rId941"/>
+    <hyperlink ref="A953" r:id="rId942"/>
+    <hyperlink ref="A954" r:id="rId943"/>
+    <hyperlink ref="A955" r:id="rId944"/>
+    <hyperlink ref="A956" r:id="rId945"/>
+    <hyperlink ref="A957" r:id="rId946"/>
+    <hyperlink ref="A958" r:id="rId947"/>
+    <hyperlink ref="A959" r:id="rId948"/>
+    <hyperlink ref="A960" r:id="rId949"/>
+    <hyperlink ref="A961" r:id="rId950"/>
+    <hyperlink ref="A962" r:id="rId951"/>
+    <hyperlink ref="A963" r:id="rId952"/>
+    <hyperlink ref="A964" r:id="rId953"/>
+    <hyperlink ref="A965" r:id="rId954"/>
+    <hyperlink ref="A966" r:id="rId955"/>
+    <hyperlink ref="A967" r:id="rId956"/>
+    <hyperlink ref="A968" r:id="rId957"/>
+    <hyperlink ref="A969" r:id="rId958"/>
+    <hyperlink ref="A970" r:id="rId959"/>
+    <hyperlink ref="A971" r:id="rId960"/>
+    <hyperlink ref="A972" r:id="rId961"/>
+    <hyperlink ref="A973" r:id="rId962"/>
+    <hyperlink ref="A974" r:id="rId963"/>
+    <hyperlink ref="A975" r:id="rId964"/>
+    <hyperlink ref="A976" r:id="rId965"/>
+    <hyperlink ref="A977" r:id="rId966"/>
+    <hyperlink ref="A978" r:id="rId967"/>
+    <hyperlink ref="A979" r:id="rId968"/>
+    <hyperlink ref="A980" r:id="rId969"/>
+    <hyperlink ref="A981" r:id="rId970"/>
+    <hyperlink ref="A982" r:id="rId971"/>
+    <hyperlink ref="A983" r:id="rId972"/>
+    <hyperlink ref="A984" r:id="rId973"/>
+    <hyperlink ref="A985" r:id="rId974"/>
+    <hyperlink ref="A986" r:id="rId975"/>
+    <hyperlink ref="A987" r:id="rId976"/>
+    <hyperlink ref="A988" r:id="rId977"/>
+    <hyperlink ref="A989" r:id="rId978"/>
+    <hyperlink ref="A990" r:id="rId979"/>
+    <hyperlink ref="A991" r:id="rId980"/>
+    <hyperlink ref="A992" r:id="rId981"/>
+    <hyperlink ref="A993" r:id="rId982"/>
+    <hyperlink ref="A994" r:id="rId983"/>
+    <hyperlink ref="A995" r:id="rId984"/>
+    <hyperlink ref="A996" r:id="rId985"/>
+    <hyperlink ref="A997" r:id="rId986"/>
+    <hyperlink ref="A998" r:id="rId987"/>
+    <hyperlink ref="A999" r:id="rId988"/>
+    <hyperlink ref="A1000" r:id="rId989"/>
+    <hyperlink ref="A1001" r:id="rId990"/>
+    <hyperlink ref="A1002" r:id="rId991"/>
+    <hyperlink ref="A1003" r:id="rId992"/>
+    <hyperlink ref="A1004" r:id="rId993"/>
+    <hyperlink ref="A1005" r:id="rId994"/>
+    <hyperlink ref="A1006" r:id="rId995"/>
+    <hyperlink ref="A1007" r:id="rId996"/>
+    <hyperlink ref="A1008" r:id="rId997"/>
+    <hyperlink ref="A1009" r:id="rId998"/>
+    <hyperlink ref="A1010" r:id="rId999"/>
+    <hyperlink ref="A1011" r:id="rId1000"/>
+    <hyperlink ref="A1012" r:id="rId1001"/>
+    <hyperlink ref="A1013" r:id="rId1002"/>
+    <hyperlink ref="A1014" r:id="rId1003"/>
+    <hyperlink ref="A1015" r:id="rId1004"/>
+    <hyperlink ref="A1016" r:id="rId1005"/>
+    <hyperlink ref="A1017" r:id="rId1006"/>
+    <hyperlink ref="A1018" r:id="rId1007"/>
+    <hyperlink ref="A1019" r:id="rId1008"/>
+    <hyperlink ref="A1020" r:id="rId1009"/>
+    <hyperlink ref="A1021" r:id="rId1010"/>
+    <hyperlink ref="A1022" r:id="rId1011"/>
+    <hyperlink ref="A1023" r:id="rId1012"/>
+    <hyperlink ref="A1024" r:id="rId1013"/>
+    <hyperlink ref="A1025" r:id="rId1014"/>
+    <hyperlink ref="A1026" r:id="rId1015"/>
+    <hyperlink ref="A1027" r:id="rId1016"/>
+    <hyperlink ref="A1028" r:id="rId1017"/>
+    <hyperlink ref="A1029" r:id="rId1018"/>
+    <hyperlink ref="A1030" r:id="rId1019"/>
+    <hyperlink ref="A1031" r:id="rId1020"/>
+    <hyperlink ref="A1032" r:id="rId1021"/>
+    <hyperlink ref="A1033" r:id="rId1022"/>
+    <hyperlink ref="A1034" r:id="rId1023"/>
+    <hyperlink ref="A1035" r:id="rId1024"/>
+    <hyperlink ref="A1036" r:id="rId1025"/>
+    <hyperlink ref="A1037" r:id="rId1026"/>
+    <hyperlink ref="A1038" r:id="rId1027"/>
+    <hyperlink ref="A1039" r:id="rId1028"/>
+    <hyperlink ref="A1040" r:id="rId1029"/>
+    <hyperlink ref="A1041" r:id="rId1030"/>
+    <hyperlink ref="A1042" r:id="rId1031"/>
+    <hyperlink ref="A1043" r:id="rId1032"/>
+    <hyperlink ref="A1044" r:id="rId1033"/>
+    <hyperlink ref="A1045" r:id="rId1034"/>
+    <hyperlink ref="A1046" r:id="rId1035"/>
+    <hyperlink ref="A1047" r:id="rId1036"/>
+    <hyperlink ref="A1048" r:id="rId1037"/>
+    <hyperlink ref="A1049" r:id="rId1038"/>
+    <hyperlink ref="A1050" r:id="rId1039"/>
+    <hyperlink ref="A1051" r:id="rId1040"/>
+    <hyperlink ref="A1052" r:id="rId1041"/>
+    <hyperlink ref="A1053" r:id="rId1042"/>
+    <hyperlink ref="A1054" r:id="rId1043"/>
+    <hyperlink ref="A1055" r:id="rId1044"/>
+    <hyperlink ref="A1056" r:id="rId1045"/>
+    <hyperlink ref="A1057" r:id="rId1046"/>
+    <hyperlink ref="A1058" r:id="rId1047"/>
+    <hyperlink ref="A1059" r:id="rId1048"/>
+    <hyperlink ref="A1060" r:id="rId1049"/>
+    <hyperlink ref="A1061" r:id="rId1050"/>
+    <hyperlink ref="A1062" r:id="rId1051"/>
+    <hyperlink ref="A1063" r:id="rId1052"/>
+    <hyperlink ref="A1064" r:id="rId1053"/>
+    <hyperlink ref="A1065" r:id="rId1054"/>
+    <hyperlink ref="A1066" r:id="rId1055"/>
+    <hyperlink ref="A1067" r:id="rId1056"/>
+    <hyperlink ref="A1068" r:id="rId1057"/>
+    <hyperlink ref="A1069" r:id="rId1058"/>
+    <hyperlink ref="A1070" r:id="rId1059"/>
+    <hyperlink ref="A1071" r:id="rId1060"/>
+    <hyperlink ref="A1072" r:id="rId1061"/>
+    <hyperlink ref="A1073" r:id="rId1062"/>
+    <hyperlink ref="A1074" r:id="rId1063"/>
+    <hyperlink ref="A1075" r:id="rId1064"/>
+    <hyperlink ref="A1076" r:id="rId1065"/>
+    <hyperlink ref="A1077" r:id="rId1066"/>
+    <hyperlink ref="A1078" r:id="rId1067"/>
+    <hyperlink ref="A1079" r:id="rId1068"/>
+    <hyperlink ref="A1080" r:id="rId1069"/>
+    <hyperlink ref="A1081" r:id="rId1070"/>
+    <hyperlink ref="A1082" r:id="rId1071"/>
+    <hyperlink ref="A1083" r:id="rId1072"/>
+    <hyperlink ref="A1084" r:id="rId1073"/>
+    <hyperlink ref="A1085" r:id="rId1074"/>
+    <hyperlink ref="A1086" r:id="rId1075"/>
+    <hyperlink ref="A1087" r:id="rId1076"/>
+    <hyperlink ref="A1088" r:id="rId1077"/>
+    <hyperlink ref="A1089" r:id="rId1078"/>
+    <hyperlink ref="A1090" r:id="rId1079"/>
+    <hyperlink ref="A1091" r:id="rId1080"/>
+    <hyperlink ref="A1092" r:id="rId1081"/>
+    <hyperlink ref="A1093" r:id="rId1082"/>
+    <hyperlink ref="A1094" r:id="rId1083"/>
+    <hyperlink ref="A1095" r:id="rId1084"/>
+    <hyperlink ref="A1096" r:id="rId1085"/>
+    <hyperlink ref="A1097" r:id="rId1086"/>
+    <hyperlink ref="A1098" r:id="rId1087"/>
+    <hyperlink ref="A1099" r:id="rId1088"/>
+    <hyperlink ref="A1100" r:id="rId1089"/>
+    <hyperlink ref="A1101" r:id="rId1090"/>
+    <hyperlink ref="A1102" r:id="rId1091"/>
+    <hyperlink ref="A1103" r:id="rId1092"/>
+    <hyperlink ref="A1104" r:id="rId1093"/>
+    <hyperlink ref="A1105" r:id="rId1094"/>
+    <hyperlink ref="A1106" r:id="rId1095"/>
+    <hyperlink ref="A1107" r:id="rId1096"/>
+    <hyperlink ref="A1108" r:id="rId1097"/>
+    <hyperlink ref="A1109" r:id="rId1098"/>
+    <hyperlink ref="A1110" r:id="rId1099"/>
+    <hyperlink ref="A1111" r:id="rId1100"/>
+    <hyperlink ref="A1112" r:id="rId1101"/>
+    <hyperlink ref="A1113" r:id="rId1102"/>
+    <hyperlink ref="A1114" r:id="rId1103"/>
+    <hyperlink ref="A1115" r:id="rId1104"/>
+    <hyperlink ref="A1116" r:id="rId1105"/>
+    <hyperlink ref="A1117" r:id="rId1106"/>
+    <hyperlink ref="A1118" r:id="rId1107"/>
+    <hyperlink ref="A1119" r:id="rId1108"/>
+    <hyperlink ref="A1120" r:id="rId1109"/>
+    <hyperlink ref="A1121" r:id="rId1110"/>
+    <hyperlink ref="A1122" r:id="rId1111"/>
+    <hyperlink ref="A1123" r:id="rId1112"/>
+    <hyperlink ref="A1124" r:id="rId1113"/>
+    <hyperlink ref="A1125" r:id="rId1114"/>
+    <hyperlink ref="A1126" r:id="rId1115"/>
+    <hyperlink ref="A1127" r:id="rId1116"/>
+    <hyperlink ref="A1128" r:id="rId1117"/>
+    <hyperlink ref="A1129" r:id="rId1118"/>
+    <hyperlink ref="A1130" r:id="rId1119"/>
+    <hyperlink ref="A1131" r:id="rId1120"/>
+    <hyperlink ref="A1132" r:id="rId1121"/>
+    <hyperlink ref="A1133" r:id="rId1122"/>
+    <hyperlink ref="A1134" r:id="rId1123"/>
+    <hyperlink ref="A1135" r:id="rId1124"/>
+    <hyperlink ref="A1136" r:id="rId1125"/>
+    <hyperlink ref="A1137" r:id="rId1126"/>
+    <hyperlink ref="A1138" r:id="rId1127"/>
+    <hyperlink ref="A1139" r:id="rId1128"/>
+    <hyperlink ref="A1140" r:id="rId1129"/>
+    <hyperlink ref="A1141" r:id="rId1130"/>
+    <hyperlink ref="A1142" r:id="rId1131"/>
+    <hyperlink ref="A1143" r:id="rId1132"/>
+    <hyperlink ref="A1144" r:id="rId1133"/>
+    <hyperlink ref="A1145" r:id="rId1134"/>
+    <hyperlink ref="A1146" r:id="rId1135"/>
+    <hyperlink ref="A1147" r:id="rId1136"/>
+    <hyperlink ref="A1148" r:id="rId1137"/>
+    <hyperlink ref="A1149" r:id="rId1138"/>
+    <hyperlink ref="A1150" r:id="rId1139"/>
+    <hyperlink ref="A1151" r:id="rId1140"/>
+    <hyperlink ref="A1152" r:id="rId1141"/>
+    <hyperlink ref="A1153" r:id="rId1142"/>
+    <hyperlink ref="A1154" r:id="rId1143"/>
+    <hyperlink ref="A1155" r:id="rId1144"/>
+    <hyperlink ref="A1156" r:id="rId1145"/>
+    <hyperlink ref="A1157" r:id="rId1146"/>
+    <hyperlink ref="A1158" r:id="rId1147"/>
+    <hyperlink ref="A1159" r:id="rId1148"/>
+    <hyperlink ref="A1160" r:id="rId1149"/>
+    <hyperlink ref="A1161" r:id="rId1150"/>
+    <hyperlink ref="A1162" r:id="rId1151"/>
+    <hyperlink ref="A1163" r:id="rId1152"/>
+    <hyperlink ref="A1164" r:id="rId1153"/>
+    <hyperlink ref="A1165" r:id="rId1154"/>
+    <hyperlink ref="A1166" r:id="rId1155"/>
+    <hyperlink ref="A1167" r:id="rId1156"/>
+    <hyperlink ref="A1168" r:id="rId1157"/>
+    <hyperlink ref="A1169" r:id="rId1158"/>
+    <hyperlink ref="A1170" r:id="rId1159"/>
+    <hyperlink ref="A1171" r:id="rId1160"/>
+    <hyperlink ref="A1172" r:id="rId1161"/>
+    <hyperlink ref="A1173" r:id="rId1162"/>
+    <hyperlink ref="A1174" r:id="rId1163"/>
+    <hyperlink ref="A1175" r:id="rId1164"/>
+    <hyperlink ref="A1176" r:id="rId1165"/>
+    <hyperlink ref="A1177" r:id="rId1166"/>
+    <hyperlink ref="A1178" r:id="rId1167"/>
+    <hyperlink ref="A1179" r:id="rId1168"/>
+    <hyperlink ref="A1180" r:id="rId1169"/>
+    <hyperlink ref="A1181" r:id="rId1170"/>
+    <hyperlink ref="A1182" r:id="rId1171"/>
+    <hyperlink ref="A1183" r:id="rId1172"/>
+    <hyperlink ref="A1184" r:id="rId1173"/>
+    <hyperlink ref="A1185" r:id="rId1174"/>
+    <hyperlink ref="A1186" r:id="rId1175"/>
+    <hyperlink ref="A1187" r:id="rId1176"/>
+    <hyperlink ref="A1188" r:id="rId1177"/>
+    <hyperlink ref="A1189" r:id="rId1178"/>
+    <hyperlink ref="A1190" r:id="rId1179"/>
+    <hyperlink ref="A1191" r:id="rId1180"/>
+    <hyperlink ref="A1192" r:id="rId1181"/>
+    <hyperlink ref="A1193" r:id="rId1182"/>
+    <hyperlink ref="A1194" r:id="rId1183"/>
+    <hyperlink ref="A1195" r:id="rId1184"/>
+    <hyperlink ref="A1196" r:id="rId1185"/>
+    <hyperlink ref="A1197" r:id="rId1186"/>
+    <hyperlink ref="A1198" r:id="rId1187"/>
+    <hyperlink ref="A1199" r:id="rId1188"/>
+    <hyperlink ref="A1200" r:id="rId1189"/>
+    <hyperlink ref="A1201" r:id="rId1190"/>
+    <hyperlink ref="A1202" r:id="rId1191"/>
+    <hyperlink ref="A1203" r:id="rId1192"/>
+    <hyperlink ref="A1204" r:id="rId1193"/>
+    <hyperlink ref="A1205" r:id="rId1194"/>
+    <hyperlink ref="A1206" r:id="rId1195"/>
+    <hyperlink ref="A1207" r:id="rId1196"/>
+    <hyperlink ref="A1208" r:id="rId1197"/>
+    <hyperlink ref="A1209" r:id="rId1198"/>
+    <hyperlink ref="A1210" r:id="rId1199"/>
+    <hyperlink ref="A1211" r:id="rId1200"/>
+    <hyperlink ref="A1212" r:id="rId1201"/>
+    <hyperlink ref="A1213" r:id="rId1202"/>
+    <hyperlink ref="A1214" r:id="rId1203"/>
+    <hyperlink ref="A1215" r:id="rId1204"/>
+    <hyperlink ref="A1216" r:id="rId1205"/>
+    <hyperlink ref="A1217" r:id="rId1206"/>
+    <hyperlink ref="A1218" r:id="rId1207"/>
+    <hyperlink ref="A1219" r:id="rId1208"/>
+    <hyperlink ref="A1220" r:id="rId1209"/>
+    <hyperlink ref="A1221" r:id="rId1210"/>
+    <hyperlink ref="A1222" r:id="rId1211"/>
+    <hyperlink ref="A1223" r:id="rId1212"/>
+    <hyperlink ref="A1224" r:id="rId1213"/>
+    <hyperlink ref="A1225" r:id="rId1214"/>
+    <hyperlink ref="A1226" r:id="rId1215"/>
+    <hyperlink ref="A1227" r:id="rId1216"/>
+    <hyperlink ref="A1228" r:id="rId1217"/>
+    <hyperlink ref="A1229" r:id="rId1218"/>
+    <hyperlink ref="A1230" r:id="rId1219"/>
+    <hyperlink ref="A1231" r:id="rId1220"/>
+    <hyperlink ref="A1232" r:id="rId1221"/>
+    <hyperlink ref="A1233" r:id="rId1222"/>
+    <hyperlink ref="A1234" r:id="rId1223"/>
+    <hyperlink ref="A1235" r:id="rId1224"/>
+    <hyperlink ref="A1236" r:id="rId1225"/>
+    <hyperlink ref="A1237" r:id="rId1226"/>
+    <hyperlink ref="A1238" r:id="rId1227"/>
+    <hyperlink ref="A1239" r:id="rId1228"/>
+    <hyperlink ref="A1240" r:id="rId1229"/>
+    <hyperlink ref="A1241" r:id="rId1230"/>
+    <hyperlink ref="A1242" r:id="rId1231"/>
+    <hyperlink ref="A1243" r:id="rId1232"/>
+    <hyperlink ref="A1244" r:id="rId1233"/>
+    <hyperlink ref="A1245" r:id="rId1234"/>
+    <hyperlink ref="A1246" r:id="rId1235"/>
+    <hyperlink ref="A1247" r:id="rId1236"/>
+    <hyperlink ref="A1248" r:id="rId1237"/>
+    <hyperlink ref="A1249" r:id="rId1238"/>
+    <hyperlink ref="A1250" r:id="rId1239"/>
+    <hyperlink ref="A1251" r:id="rId1240"/>
+    <hyperlink ref="A1252" r:id="rId1241"/>
+    <hyperlink ref="A1253" r:id="rId1242"/>
+    <hyperlink ref="A1254" r:id="rId1243"/>
+    <hyperlink ref="A1255" r:id="rId1244"/>
+    <hyperlink ref="A1256" r:id="rId1245"/>
+    <hyperlink ref="A1257" r:id="rId1246"/>
+    <hyperlink ref="A1258" r:id="rId1247"/>
+    <hyperlink ref="A1259" r:id="rId1248"/>
+    <hyperlink ref="A1260" r:id="rId1249"/>
+    <hyperlink ref="A1261" r:id="rId1250"/>
+    <hyperlink ref="A1262" r:id="rId1251"/>
+    <hyperlink ref="A1263" r:id="rId1252"/>
+    <hyperlink ref="A1264" r:id="rId1253"/>
+    <hyperlink ref="A1265" r:id="rId1254"/>
+    <hyperlink ref="A1266" r:id="rId1255"/>
+    <hyperlink ref="A1267" r:id="rId1256"/>
+    <hyperlink ref="A1268" r:id="rId1257"/>
+    <hyperlink ref="A1269" r:id="rId1258"/>
+    <hyperlink ref="A1270" r:id="rId1259"/>
+    <hyperlink ref="A1271" r:id="rId1260"/>
+    <hyperlink ref="A1272" r:id="rId1261"/>
+    <hyperlink ref="A1273" r:id="rId1262"/>
+    <hyperlink ref="A1274" r:id="rId1263"/>
+    <hyperlink ref="A1275" r:id="rId1264"/>
+    <hyperlink ref="A1276" r:id="rId1265"/>
+    <hyperlink ref="A1277" r:id="rId1266"/>
+    <hyperlink ref="A1278" r:id="rId1267"/>
+    <hyperlink ref="A1279" r:id="rId1268"/>
+    <hyperlink ref="A1280" r:id="rId1269"/>
+    <hyperlink ref="A1281" r:id="rId1270"/>
+    <hyperlink ref="A1282" r:id="rId1271"/>
+    <hyperlink ref="A1283" r:id="rId1272"/>
+    <hyperlink ref="A1284" r:id="rId1273"/>
+    <hyperlink ref="A1285" r:id="rId1274"/>
+    <hyperlink ref="A1286" r:id="rId1275"/>
+    <hyperlink ref="A1287" r:id="rId1276"/>
+    <hyperlink ref="A1288" r:id="rId1277"/>
+    <hyperlink ref="A1289" r:id="rId1278"/>
+    <hyperlink ref="A1290" r:id="rId1279"/>
+    <hyperlink ref="A1291" r:id="rId1280"/>
+    <hyperlink ref="A1292" r:id="rId1281"/>
+    <hyperlink ref="A1293" r:id="rId1282"/>
+    <hyperlink ref="A1294" r:id="rId1283"/>
+    <hyperlink ref="A1295" r:id="rId1284"/>
+    <hyperlink ref="A1296" r:id="rId1285"/>
+    <hyperlink ref="A1297" r:id="rId1286"/>
+    <hyperlink ref="A1298" r:id="rId1287"/>
+    <hyperlink ref="A1299" r:id="rId1288"/>
+    <hyperlink ref="A1300" r:id="rId1289"/>
+    <hyperlink ref="A1301" r:id="rId1290"/>
+    <hyperlink ref="A1302" r:id="rId1291"/>
+    <hyperlink ref="A1303" r:id="rId1292"/>
+    <hyperlink ref="A1304" r:id="rId1293"/>
+    <hyperlink ref="A1305" r:id="rId1294"/>
+    <hyperlink ref="A1306" r:id="rId1295"/>
+    <hyperlink ref="A1307" r:id="rId1296"/>
+    <hyperlink ref="A1308" r:id="rId1297"/>
+    <hyperlink ref="A1309" r:id="rId1298"/>
+    <hyperlink ref="A1310" r:id="rId1299"/>
+    <hyperlink ref="A1311" r:id="rId1300"/>
+    <hyperlink ref="A1312" r:id="rId1301"/>
+    <hyperlink ref="A1313" r:id="rId1302"/>
+    <hyperlink ref="A1314" r:id="rId1303"/>
+    <hyperlink ref="A1315" r:id="rId1304"/>
+    <hyperlink ref="A1316" r:id="rId1305"/>
+    <hyperlink ref="A1317" r:id="rId1306"/>
+    <hyperlink ref="A1318" r:id="rId1307"/>
+    <hyperlink ref="A1319" r:id="rId1308"/>
+    <hyperlink ref="A1320" r:id="rId1309"/>
+    <hyperlink ref="A1321" r:id="rId1310"/>
+    <hyperlink ref="A1322" r:id="rId1311"/>
+    <hyperlink ref="A1323" r:id="rId1312"/>
+    <hyperlink ref="A1324" r:id="rId1313"/>
+    <hyperlink ref="A1325" r:id="rId1314"/>
+    <hyperlink ref="A1326" r:id="rId1315"/>
+    <hyperlink ref="A1327" r:id="rId1316"/>
+    <hyperlink ref="A1328" r:id="rId1317"/>
+    <hyperlink ref="A1329" r:id="rId1318"/>
+    <hyperlink ref="A1330" r:id="rId1319"/>
+    <hyperlink ref="A1331" r:id="rId1320"/>
+    <hyperlink ref="A1332" r:id="rId1321"/>
+    <hyperlink ref="A1333" r:id="rId1322"/>
+    <hyperlink ref="A1334" r:id="rId1323"/>
+    <hyperlink ref="A1335" r:id="rId1324"/>
+    <hyperlink ref="A1336" r:id="rId1325"/>
+    <hyperlink ref="A1337" r:id="rId1326"/>
+    <hyperlink ref="A1338" r:id="rId1327"/>
+    <hyperlink ref="A1339" r:id="rId1328"/>
+    <hyperlink ref="A1340" r:id="rId1329"/>
+    <hyperlink ref="A1341" r:id="rId1330"/>
+    <hyperlink ref="A1342" r:id="rId1331"/>
+    <hyperlink ref="A1343" r:id="rId1332"/>
+    <hyperlink ref="A1344" r:id="rId1333"/>
+    <hyperlink ref="A1345" r:id="rId1334"/>
+    <hyperlink ref="A1346" r:id="rId1335"/>
+    <hyperlink ref="A1347" r:id="rId1336"/>
+    <hyperlink ref="A1348" r:id="rId1337"/>
+    <hyperlink ref="A1349" r:id="rId1338"/>
+    <hyperlink ref="A1350" r:id="rId1339"/>
+    <hyperlink ref="A1351" r:id="rId1340"/>
+    <hyperlink ref="A1352" r:id="rId1341"/>
+    <hyperlink ref="A1353" r:id="rId1342"/>
+    <hyperlink ref="A1354" r:id="rId1343"/>
+    <hyperlink ref="A1355" r:id="rId1344"/>
+    <hyperlink ref="A1356" r:id="rId1345"/>
+    <hyperlink ref="A1357" r:id="rId1346"/>
+    <hyperlink ref="A1358" r:id="rId1347"/>
+    <hyperlink ref="A1359" r:id="rId1348"/>
+    <hyperlink ref="A1360" r:id="rId1349"/>
+    <hyperlink ref="A1361" r:id="rId1350"/>
+    <hyperlink ref="A1362" r:id="rId1351"/>
+    <hyperlink ref="A1363" r:id="rId1352"/>
+    <hyperlink ref="A1364" r:id="rId1353"/>
+    <hyperlink ref="A1365" r:id="rId1354"/>
+    <hyperlink ref="A1366" r:id="rId1355"/>
+    <hyperlink ref="A1367" r:id="rId1356"/>
+    <hyperlink ref="A1368" r:id="rId1357"/>
+    <hyperlink ref="A1369" r:id="rId1358"/>
+    <hyperlink ref="A1370" r:id="rId1359"/>
+    <hyperlink ref="A1371" r:id="rId1360"/>
+    <hyperlink ref="A1372" r:id="rId1361"/>
+    <hyperlink ref="A1373" r:id="rId1362"/>
+    <hyperlink ref="A1374" r:id="rId1363"/>
+    <hyperlink ref="A1375" r:id="rId1364"/>
+    <hyperlink ref="A1376" r:id="rId1365"/>
+    <hyperlink ref="A1377" r:id="rId1366"/>
+    <hyperlink ref="A1378" r:id="rId1367"/>
+    <hyperlink ref="A1379" r:id="rId1368"/>
+    <hyperlink ref="A1380" r:id="rId1369"/>
+    <hyperlink ref="A1381" r:id="rId1370"/>
+    <hyperlink ref="A1382" r:id="rId1371"/>
+    <hyperlink ref="A1383" r:id="rId1372"/>
+    <hyperlink ref="A1384" r:id="rId1373"/>
+    <hyperlink ref="A1385" r:id="rId1374"/>
+    <hyperlink ref="A1386" r:id="rId1375"/>
+    <hyperlink ref="A1387" r:id="rId1376"/>
+    <hyperlink ref="A1388" r:id="rId1377"/>
+    <hyperlink ref="A1389" r:id="rId1378"/>
+    <hyperlink ref="A1390" r:id="rId1379"/>
+    <hyperlink ref="A1391" r:id="rId1380"/>
+    <hyperlink ref="A1392" r:id="rId1381"/>
+    <hyperlink ref="A1393" r:id="rId1382"/>
+    <hyperlink ref="A1394" r:id="rId1383"/>
+    <hyperlink ref="A1395" r:id="rId1384"/>
+    <hyperlink ref="A1396" r:id="rId1385"/>
+    <hyperlink ref="A1397" r:id="rId1386"/>
+    <hyperlink ref="A1398" r:id="rId1387"/>
+    <hyperlink ref="A1399" r:id="rId1388"/>
+    <hyperlink ref="A1400" r:id="rId1389"/>
+    <hyperlink ref="A1401" r:id="rId1390"/>
+    <hyperlink ref="A1402" r:id="rId1391"/>
+    <hyperlink ref="A1403" r:id="rId1392"/>
+    <hyperlink ref="A1404" r:id="rId1393"/>
+    <hyperlink ref="A1405" r:id="rId1394"/>
+    <hyperlink ref="A1406" r:id="rId1395"/>
+    <hyperlink ref="A1407" r:id="rId1396"/>
+    <hyperlink ref="A1408" r:id="rId1397"/>
+    <hyperlink ref="A1409" r:id="rId1398"/>
+    <hyperlink ref="A1410" r:id="rId1399"/>
+    <hyperlink ref="A1411" r:id="rId1400"/>
+    <hyperlink ref="A1412" r:id="rId1401"/>
+    <hyperlink ref="A1413" r:id="rId1402"/>
+    <hyperlink ref="A1414" r:id="rId1403"/>
+    <hyperlink ref="A1415" r:id="rId1404"/>
+    <hyperlink ref="A1416" r:id="rId1405"/>
+    <hyperlink ref="A1417" r:id="rId1406"/>
+    <hyperlink ref="A1418" r:id="rId1407"/>
+    <hyperlink ref="A1419" r:id="rId1408"/>
+    <hyperlink ref="A1420" r:id="rId1409"/>
+    <hyperlink ref="A1421" r:id="rId1410"/>
+    <hyperlink ref="A1422" r:id="rId1411"/>
+    <hyperlink ref="A1423" r:id="rId1412"/>
+    <hyperlink ref="A1424" r:id="rId1413"/>
+    <hyperlink ref="A1425" r:id="rId1414"/>
+    <hyperlink ref="A1426" r:id="rId1415"/>
+    <hyperlink ref="A1427" r:id="rId1416"/>
+    <hyperlink ref="A1428" r:id="rId1417"/>
+    <hyperlink ref="A1429" r:id="rId1418"/>
+    <hyperlink ref="A1430" r:id="rId1419"/>
+    <hyperlink ref="A1431" r:id="rId1420"/>
+    <hyperlink ref="A1432" r:id="rId1421"/>
+    <hyperlink ref="A1433" r:id="rId1422"/>
+    <hyperlink ref="A1434" r:id="rId1423"/>
+    <hyperlink ref="A1435" r:id="rId1424"/>
+    <hyperlink ref="A1436" r:id="rId1425"/>
+    <hyperlink ref="A1437" r:id="rId1426"/>
+    <hyperlink ref="A1438" r:id="rId1427"/>
+    <hyperlink ref="A1439" r:id="rId1428"/>
+    <hyperlink ref="A1440" r:id="rId1429"/>
+    <hyperlink ref="A1441" r:id="rId1430"/>
+    <hyperlink ref="A1442" r:id="rId1431"/>
+    <hyperlink ref="A1443" r:id="rId1432"/>
+    <hyperlink ref="A1444" r:id="rId1433"/>
+    <hyperlink ref="A1445" r:id="rId1434"/>
+    <hyperlink ref="A1446" r:id="rId1435"/>
+    <hyperlink ref="A1447" r:id="rId1436"/>
+    <hyperlink ref="A1448" r:id="rId1437"/>
+    <hyperlink ref="A1449" r:id="rId1438"/>
+    <hyperlink ref="A1450" r:id="rId1439"/>
+    <hyperlink ref="A1451" r:id="rId1440"/>
+    <hyperlink ref="A1452" r:id="rId1441"/>
+    <hyperlink ref="A1453" r:id="rId1442"/>
+    <hyperlink ref="A1454" r:id="rId1443"/>
+    <hyperlink ref="A1455" r:id="rId1444"/>
+    <hyperlink ref="A1456" r:id="rId1445"/>
+    <hyperlink ref="A1457" r:id="rId1446"/>
+    <hyperlink ref="A1458" r:id="rId1447"/>
+    <hyperlink ref="A1459" r:id="rId1448"/>
+    <hyperlink ref="A1460" r:id="rId1449"/>
+    <hyperlink ref="A1461" r:id="rId1450"/>
+    <hyperlink ref="A1462" r:id="rId1451"/>
+    <hyperlink ref="A1463" r:id="rId1452"/>
+    <hyperlink ref="A1464" r:id="rId1453"/>
+    <hyperlink ref="A1465" r:id="rId1454"/>
+    <hyperlink ref="A1466" r:id="rId1455"/>
+    <hyperlink ref="A1467" r:id="rId1456"/>
+    <hyperlink ref="A1468" r:id="rId1457"/>
+    <hyperlink ref="A1469" r:id="rId1458"/>
+    <hyperlink ref="A1470" r:id="rId1459"/>
+    <hyperlink ref="A1471" r:id="rId1460"/>
+    <hyperlink ref="A1472" r:id="rId1461"/>
+    <hyperlink ref="A1473" r:id="rId1462"/>
+    <hyperlink ref="A1474" r:id="rId1463"/>
+    <hyperlink ref="A1475" r:id="rId1464"/>
+    <hyperlink ref="A1476" r:id="rId1465"/>
+    <hyperlink ref="A1477" r:id="rId1466"/>
+    <hyperlink ref="A1478" r:id="rId1467"/>
+    <hyperlink ref="A1479" r:id="rId1468"/>
+    <hyperlink ref="A1480" r:id="rId1469"/>
+    <hyperlink ref="A1481" r:id="rId1470"/>
+    <hyperlink ref="A1482" r:id="rId1471"/>
+    <hyperlink ref="A1483" r:id="rId1472"/>
+    <hyperlink ref="A1484" r:id="rId1473"/>
+    <hyperlink ref="A1485" r:id="rId1474"/>
+    <hyperlink ref="A1486" r:id="rId1475"/>
+    <hyperlink ref="A1487" r:id="rId1476"/>
+    <hyperlink ref="A1488" r:id="rId1477"/>
+    <hyperlink ref="A1489" r:id="rId1478"/>
+    <hyperlink ref="A1490" r:id="rId1479"/>
+    <hyperlink ref="A1491" r:id="rId1480"/>
+    <hyperlink ref="A1492" r:id="rId1481"/>
+    <hyperlink ref="A1493" r:id="rId1482"/>
+    <hyperlink ref="A1494" r:id="rId1483"/>
+    <hyperlink ref="A1495" r:id="rId1484"/>
+    <hyperlink ref="A1496" r:id="rId1485"/>
+    <hyperlink ref="A1497" r:id="rId1486"/>
+    <hyperlink ref="A1498" r:id="rId1487"/>
+    <hyperlink ref="A1499" r:id="rId1488"/>
+    <hyperlink ref="A1500" r:id="rId1489"/>
+    <hyperlink ref="A1501" r:id="rId1490"/>
+    <hyperlink ref="A1502" r:id="rId1491"/>
+    <hyperlink ref="A1503" r:id="rId1492"/>
+    <hyperlink ref="A1504" r:id="rId1493"/>
+    <hyperlink ref="A1505" r:id="rId1494"/>
+    <hyperlink ref="A1506" r:id="rId1495"/>
+    <hyperlink ref="A1507" r:id="rId1496"/>
+    <hyperlink ref="A1508" r:id="rId1497"/>
+    <hyperlink ref="A1509" r:id="rId1498"/>
+    <hyperlink ref="A1510" r:id="rId1499"/>
+    <hyperlink ref="A1511" r:id="rId1500"/>
+    <hyperlink ref="A1512" r:id="rId1501"/>
+    <hyperlink ref="A1513" r:id="rId1502"/>
+    <hyperlink ref="A1514" r:id="rId1503"/>
+    <hyperlink ref="A1515" r:id="rId1504"/>
+    <hyperlink ref="A1516" r:id="rId1505"/>
+    <hyperlink ref="A1517" r:id="rId1506"/>
+    <hyperlink ref="A1518" r:id="rId1507"/>
+    <hyperlink ref="A1519" r:id="rId1508"/>
+    <hyperlink ref="A1520" r:id="rId1509"/>
+    <hyperlink ref="A1521" r:id="rId1510"/>
+    <hyperlink ref="A1522" r:id="rId1511"/>
+    <hyperlink ref="A1523" r:id="rId1512"/>
+    <hyperlink ref="A1524" r:id="rId1513"/>
+    <hyperlink ref="A1525" r:id="rId1514"/>
+    <hyperlink ref="A1526" r:id="rId1515"/>
+    <hyperlink ref="A1527" r:id="rId1516"/>
+    <hyperlink ref="A1528" r:id="rId1517"/>
+    <hyperlink ref="A1529" r:id="rId1518"/>
+    <hyperlink ref="A1530" r:id="rId1519"/>
+    <hyperlink ref="A1531" r:id="rId1520"/>
+    <hyperlink ref="A1532" r:id="rId1521"/>
+    <hyperlink ref="A1533" r:id="rId1522"/>
+    <hyperlink ref="A1534" r:id="rId1523"/>
+    <hyperlink ref="A1535" r:id="rId1524"/>
+    <hyperlink ref="A1536" r:id="rId1525"/>
+    <hyperlink ref="A1537" r:id="rId1526"/>
+    <hyperlink ref="A1538" r:id="rId1527"/>
+    <hyperlink ref="A1539" r:id="rId1528"/>
+    <hyperlink ref="A1540" r:id="rId1529"/>
+    <hyperlink ref="A1541" r:id="rId1530"/>
+    <hyperlink ref="A1542" r:id="rId1531"/>
+    <hyperlink ref="A1543" r:id="rId1532"/>
+    <hyperlink ref="A1544" r:id="rId1533"/>
+    <hyperlink ref="A1545" r:id="rId1534"/>
+    <hyperlink ref="A1546" r:id="rId1535"/>
+    <hyperlink ref="A1547" r:id="rId1536"/>
+    <hyperlink ref="A1548" r:id="rId1537"/>
+    <hyperlink ref="A1549" r:id="rId1538"/>
+    <hyperlink ref="A1550" r:id="rId1539"/>
+    <hyperlink ref="A1551" r:id="rId1540"/>
+    <hyperlink ref="A1552" r:id="rId1541"/>
+    <hyperlink ref="A1553" r:id="rId1542"/>
+    <hyperlink ref="A1554" r:id="rId1543"/>
+    <hyperlink ref="A1555" r:id="rId1544"/>
+    <hyperlink ref="A1556" r:id="rId1545"/>
+    <hyperlink ref="A1557" r:id="rId1546"/>
+    <hyperlink ref="A1558" r:id="rId1547"/>
+    <hyperlink ref="A1559" r:id="rId1548"/>
+    <hyperlink ref="A1560" r:id="rId1549"/>
+    <hyperlink ref="A1561" r:id="rId1550"/>
+    <hyperlink ref="A1562" r:id="rId1551"/>
+    <hyperlink ref="A1563" r:id="rId1552"/>
+    <hyperlink ref="A1564" r:id="rId1553"/>
+    <hyperlink ref="A1565" r:id="rId1554"/>
+    <hyperlink ref="A1566" r:id="rId1555"/>
+    <hyperlink ref="A1567" r:id="rId1556"/>
+    <hyperlink ref="A1568" r:id="rId1557"/>
+    <hyperlink ref="A1569" r:id="rId1558"/>
+    <hyperlink ref="A1570" r:id="rId1559"/>
+    <hyperlink ref="A1571" r:id="rId1560"/>
+    <hyperlink ref="A1572" r:id="rId1561"/>
+    <hyperlink ref="A1573" r:id="rId1562"/>
+    <hyperlink ref="A1574" r:id="rId1563"/>
+    <hyperlink ref="A1575" r:id="rId1564"/>
+    <hyperlink ref="A1576" r:id="rId1565"/>
+    <hyperlink ref="A1577" r:id="rId1566"/>
+    <hyperlink ref="A1578" r:id="rId1567"/>
+    <hyperlink ref="A1579" r:id="rId1568"/>
+    <hyperlink ref="A1580" r:id="rId1569"/>
+    <hyperlink ref="A1581" r:id="rId1570"/>
+    <hyperlink ref="A1582" r:id="rId1571"/>
+    <hyperlink ref="A1583" r:id="rId1572"/>
+    <hyperlink ref="A1584" r:id="rId1573"/>
+    <hyperlink ref="A1585" r:id="rId1574"/>
+    <hyperlink ref="A1586" r:id="rId1575"/>
+    <hyperlink ref="A1587" r:id="rId1576"/>
+    <hyperlink ref="A1588" r:id="rId1577"/>
+    <hyperlink ref="A1589" r:id="rId1578"/>
+    <hyperlink ref="A1590" r:id="rId1579"/>
+    <hyperlink ref="A1591" r:id="rId1580"/>
+    <hyperlink ref="A1592" r:id="rId1581"/>
+    <hyperlink ref="A1593" r:id="rId1582"/>
+    <hyperlink ref="A1594" r:id="rId1583"/>
+    <hyperlink ref="A1595" r:id="rId1584"/>
+    <hyperlink ref="A1596" r:id="rId1585"/>
+    <hyperlink ref="A1597" r:id="rId1586"/>
+    <hyperlink ref="A1598" r:id="rId1587"/>
+    <hyperlink ref="A1599" r:id="rId1588"/>
+    <hyperlink ref="A1600" r:id="rId1589"/>
+    <hyperlink ref="A1601" r:id="rId1590"/>
+    <hyperlink ref="A1602" r:id="rId1591"/>
+    <hyperlink ref="A1603" r:id="rId1592"/>
+    <hyperlink ref="A1604" r:id="rId1593"/>
+    <hyperlink ref="A1605" r:id="rId1594"/>
+    <hyperlink ref="A1606" r:id="rId1595"/>
+    <hyperlink ref="A1607" r:id="rId1596"/>
+    <hyperlink ref="A1608" r:id="rId1597"/>
+    <hyperlink ref="A1609" r:id="rId1598"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.5" header="0.5" left="0.25" right="0.25" top="0.75"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter>
-    <oddFooter>&amp;L2021. 9. 16. 오후 10:18</oddFooter>
+    <oddFooter>&amp;L2021. 9. 24. 오후 10:58</oddFooter>
   </headerFooter>
 </worksheet>
 </file>